--- a/Documents/ComponentsStructure.xlsx
+++ b/Documents/ComponentsStructure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Training\SocialNetworking\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592DF6E0-0BA8-41A6-B71E-F1F3C0918CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2086BBDF-CD5A-4CFF-9043-AC54ABA01C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{1399F667-693D-4D3F-9C01-B7A39D6767B8}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" activeTab="1" xr2:uid="{1399F667-693D-4D3F-9C01-B7A39D6767B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="96">
   <si>
     <t>Profile Page</t>
   </si>
@@ -268,9 +268,6 @@
   </si>
   <si>
     <t>groups</t>
-  </si>
-  <si>
-    <t>(connected to latestGroups)</t>
   </si>
   <si>
     <t>navbar</t>
@@ -992,10 +989,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F364952C-9F90-413E-9AC9-5109BF0DE2C4}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1020,7 +1017,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -1030,7 +1027,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
         <v>73</v>
@@ -1041,26 +1038,23 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" t="s">
-        <v>77</v>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>79</v>
+      </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>81</v>
+      </c>
+      <c r="D19" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" t="s">
-        <v>82</v>
-      </c>
       <c r="D20" t="s">
         <v>83</v>
       </c>
@@ -1070,72 +1064,72 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>81</v>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>75</v>
+      </c>
+      <c r="C27" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>75</v>
-      </c>
       <c r="C28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>76</v>
-      </c>
       <c r="C32" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C33" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>89</v>
       </c>
+      <c r="C38" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>90</v>
-      </c>
       <c r="C39" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1146,12 +1140,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
